--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,171 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,25 +840,43 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>800</v>
+      </c>
+      <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +888,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +923,26 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +970,73 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +1064,26 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1092,108 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1205,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,37 +1240,73 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1334,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,28 +1361,46 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1428,26 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1475,120 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1616,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1287,20 +1651,38 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1710,26 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1757,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1804,73 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1898,125 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +2028,14 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +2047,61 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
+      <c r="H41" s="3">
+        <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +2129,214 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="L43" s="3">
         <v>6800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="M43" s="3">
         <v>7000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>7100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="K46" s="3">
         <v>6400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="L46" s="3">
         <v>8400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +2364,73 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1777,25 +2441,43 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
+        <v>500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
+        <v>500</v>
+      </c>
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2505,26 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2552,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2599,26 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2646,73 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="K54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>10000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2724,14 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,124 +2743,202 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="L57" s="3">
         <v>7300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J60" s="3">
         <v>8700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>9600</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2966,37 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2130,8 +3004,8 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2139,8 +3013,26 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +3060,26 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +3107,26 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +3154,73 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J66" s="3">
         <v>8700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +3232,14 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +3267,26 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +3314,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +3361,26 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +3408,73 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +3502,26 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3549,26 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +3596,73 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +3690,125 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3820,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,22 +3841,40 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3902,26 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3949,26 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3996,26 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +4043,26 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +4090,73 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>400</v>
+      </c>
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +4168,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2865,7 +4189,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -2874,13 +4198,31 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +4250,26 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +4297,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2952,22 +4330,40 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +4375,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +4410,26 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +4457,26 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +4504,26 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +4551,73 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +4645,69 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2200</v>
       </c>
       <c r="G8" s="3">
         <v>1900</v>
       </c>
       <c r="H8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3700</v>
+        <v>5100</v>
       </c>
       <c r="E9" s="3">
         <v>1600</v>
       </c>
       <c r="F9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2900</v>
       </c>
       <c r="K17" s="3">
         <v>2700</v>
       </c>
       <c r="L17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1258,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,31 +1750,37 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1669,11 +1791,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
+      <c r="N41" s="3">
+        <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,66 +2327,78 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>6800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -2215,22 +2407,22 @@
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
@@ -2239,104 +2431,122 @@
         <v>8</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8600</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,63 +2592,75 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="N48" s="3">
+        <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>500</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2459,13 +2681,13 @@
         <v>500</v>
       </c>
       <c r="L49" s="3">
+        <v>500</v>
+      </c>
+      <c r="M49" s="3">
+        <v>500</v>
+      </c>
+      <c r="N49" s="3">
         <v>900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>900</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>900</v>
@@ -2474,10 +2696,16 @@
         <v>8</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,13 +3073,13 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2819,11 +3087,11 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2834,111 +3102,129 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>8800</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,26 +3270,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3022,17 +3314,23 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>8800</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1200</v>
       </c>
       <c r="K72" s="3">
         <v>-1100</v>
       </c>
       <c r="L72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N72" s="3">
         <v>400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3859,22 +4257,28 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,29 +4614,31 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4204,25 +4646,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,29 +4769,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4345,25 +4805,31 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,28 +5161,34 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4693,21 +5197,27 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2200</v>
       </c>
       <c r="I8" s="3">
         <v>1900</v>
       </c>
       <c r="J8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F9" s="3">
         <v>5100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3700</v>
       </c>
       <c r="G9" s="3">
         <v>1600</v>
       </c>
       <c r="H9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1061,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2900</v>
       </c>
       <c r="M17" s="3">
         <v>2700</v>
       </c>
       <c r="N17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,14 +1355,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1399,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,20 +1475,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,11 +1903,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1797,11 +1918,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,14 +2063,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
+      <c r="P41" s="3">
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,78 +2512,90 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>7100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
-        <v>300</v>
-      </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -2413,22 +2604,22 @@
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -2437,116 +2628,134 @@
         <v>8</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8600</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,75 +2807,87 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3">
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>500</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
@@ -2687,13 +2908,13 @@
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>900</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>900</v>
@@ -2702,10 +2923,16 @@
         <v>8</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F54" s="3">
         <v>6900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>8500</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,81 +3270,89 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6600</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3093,11 +3360,11 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3108,123 +3375,141 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>8800</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,32 +3561,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3320,17 +3611,23 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F66" s="3">
         <v>9800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>8800</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1200</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
       </c>
       <c r="N72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P72" s="3">
         <v>400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4263,22 +4660,28 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,35 +5055,37 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4652,25 +5093,31 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,35 +5228,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4811,25 +5270,31 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,34 +5664,40 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5203,21 +5706,27 @@
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2200</v>
       </c>
       <c r="K8" s="3">
         <v>1900</v>
       </c>
       <c r="L8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2400</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3700</v>
       </c>
       <c r="I9" s="3">
         <v>1600</v>
       </c>
       <c r="J9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,53 +1121,59 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G17" s="3">
         <v>15200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2900</v>
       </c>
       <c r="O17" s="3">
         <v>2700</v>
       </c>
       <c r="P17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,14 +1429,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1405,67 +1473,79 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>200</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,11 +1555,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1490,11 +1570,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1523,67 +1603,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1909,11 +2031,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1924,11 +2046,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2069,14 +2209,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2113,67 +2253,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
+      <c r="R41" s="3">
+        <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,90 +2698,102 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F43" s="3">
         <v>4100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>6800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>7000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>7100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -2610,22 +2802,22 @@
         <v>400</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
@@ -2634,128 +2826,146 @@
         <v>8</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8600</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +3023,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="3">
         <v>12500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>700</v>
       </c>
       <c r="S48" s="3">
+        <v>600</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2886,14 +3108,14 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>500</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2914,13 +3136,13 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
         <v>900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>900</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>900</v>
@@ -2929,10 +3151,16 @@
         <v>8</v>
       </c>
       <c r="U49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F54" s="3">
         <v>17300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>8500</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6600</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,22 +3611,22 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3366,11 +3634,11 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3381,135 +3649,153 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F59" s="3">
         <v>10800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>10300</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9600</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>8800</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,38 +3853,44 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3617,17 +3909,23 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>8800</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1200</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
       </c>
       <c r="P72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R72" s="3">
         <v>400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4666,22 +5064,28 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,41 +5497,43 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5099,25 +5541,31 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,41 +5688,47 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5276,25 +5736,31 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,40 +6168,46 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5712,21 +6216,27 @@
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,280 +680,331 @@
     <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>3700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>11700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="V8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="W8" s="3">
         <v>8300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="X8" s="3">
         <v>3600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="Y8" s="3">
         <v>2900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Z8" s="3">
         <v>2400</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="K9" s="3">
         <v>14700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>1700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="W9" s="3">
         <v>7500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="X9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Y9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Z9" s="3">
         <v>2100</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>600</v>
       </c>
       <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>-3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>600</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1028,12 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1097,20 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1174,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,21 +1206,21 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1152,28 +1231,40 @@
         <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1328,20 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1362,89 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>15200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2700</v>
       </c>
       <c r="R17" s="3">
         <v>3100</v>
       </c>
       <c r="S17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W17" s="3">
         <v>8300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>3800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="Y17" s="3">
         <v>3400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,61 +1455,73 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1545,12 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1435,20 +1570,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1614,20 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,61 +1638,73 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1561,32 +1720,32 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1609,8 +1768,20 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1621,61 +1792,73 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1922,20 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1999,20 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1816,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1831,46 +2038,58 @@
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1881,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1896,46 +2115,58 @@
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2230,20 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2037,35 +2280,47 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2384,20 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2461,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2215,20 +2494,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2259,8 +2538,20 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2271,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2286,46 +2577,58 @@
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2692,20 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2401,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2416,116 +2731,140 @@
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2888,12 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,46 +2917,50 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
       </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="M41" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
@@ -2622,25 +2969,37 @@
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
+        <v>400</v>
+      </c>
+      <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,138 +3063,174 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H43" s="3">
         <v>7500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1800</v>
       </c>
       <c r="L43" s="3">
         <v>1800</v>
       </c>
       <c r="M43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="T43" s="3">
         <v>5700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="U43" s="3">
         <v>5600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="V43" s="3">
         <v>6800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="W43" s="3">
         <v>7000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3">
         <v>7100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>400</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="W44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>400</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,129 +3238,153 @@
         <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10100</v>
+        <v>6900</v>
       </c>
       <c r="E46" s="3">
-        <v>8000</v>
+        <v>5700</v>
       </c>
       <c r="F46" s="3">
         <v>4800</v>
       </c>
       <c r="G46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>6400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="U46" s="3">
         <v>6400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="V46" s="3">
         <v>8400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="W46" s="3">
         <v>8600</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>7000</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,52 +3448,64 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>10400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>12500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
@@ -3082,52 +3513,64 @@
       <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="T48" s="3">
+        <v>600</v>
       </c>
       <c r="U48" s="3">
+        <v>600</v>
+      </c>
+      <c r="V48" s="3">
         <v>700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -3142,25 +3585,37 @@
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
+        <v>500</v>
+      </c>
+      <c r="U49" s="3">
+        <v>500</v>
+      </c>
+      <c r="V49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="W49" s="3">
         <v>900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3679,20 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3756,20 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3306,14 +3785,14 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3354,8 +3833,20 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3910,97 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H54" s="3">
         <v>20000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>18400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>17300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>6900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>8400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>8200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>5900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>4000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>7500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>10000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="W54" s="3">
         <v>10200</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>8500</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +4024,12 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,78 +4053,94 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1200</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>900</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="V57" s="3">
         <v>7300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="W57" s="3">
         <v>6600</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3617,185 +4152,221 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>6600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>10300</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H60" s="3">
         <v>14700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>12400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>8600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>9500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="W60" s="3">
         <v>9600</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>8800</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,50 +4430,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H62" s="3">
         <v>5300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>6100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3915,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -3924,8 +4507,20 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4584,20 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4661,20 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4738,97 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H66" s="3">
         <v>20000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>18500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>20300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>11500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>8200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>8700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>9500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
         <v>8800</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4852,12 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4921,20 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4998,20 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +5075,20 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +5152,97 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-6500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-2100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-1800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="Y72" s="3">
         <v>-400</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +5306,20 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5383,20 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5460,97 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5614,102 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4941,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4956,46 +5735,58 @@
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5810,12 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5070,22 +5865,34 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5956,20 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +6033,20 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +6110,20 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +6187,20 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +6264,97 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>300</v>
       </c>
       <c r="S89" s="3">
         <v>400</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>300</v>
+      </c>
+      <c r="W89" s="3">
+        <v>400</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +6378,17 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5514,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5526,46 +6409,58 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6524,20 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6601,97 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="W94" s="3">
         <v>-3100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="X94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6715,12 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6784,20 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6861,20 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6938,20 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,78 +7015,102 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>3700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>500</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="W100" s="3">
         <v>2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6174,69 +7169,93 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2200</v>
       </c>
       <c r="Q8" s="3">
         <v>1900</v>
       </c>
       <c r="R8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>8300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2400</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2300</v>
       </c>
       <c r="G9" s="3">
         <v>2300</v>
       </c>
       <c r="H9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3700</v>
       </c>
       <c r="O9" s="3">
         <v>1600</v>
       </c>
       <c r="P9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>7500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2100</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>600</v>
       </c>
       <c r="F10" s="3">
         <v>500</v>
       </c>
       <c r="G10" s="3">
+        <v>600</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>500</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,53 +1257,59 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2900</v>
       </c>
       <c r="U17" s="3">
         <v>2700</v>
       </c>
       <c r="V17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X17" s="3">
         <v>3100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1582,14 +1649,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1693,97 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1732,11 +1811,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1747,11 +1826,11 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2292,11 +2413,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2307,11 +2428,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2506,14 +2645,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2689,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,108 +3092,116 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>300</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
+      <c r="X41" s="3">
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>17500</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3075,85 +3254,97 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>5700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>6800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>7000</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3">
         <v>7100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3352,7 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -3170,31 +3361,31 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -3203,22 +3394,22 @@
         <v>400</v>
       </c>
       <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
+        <v>400</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>400</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y44" s="3">
         <v>400</v>
@@ -3227,164 +3418,182 @@
         <v>8</v>
       </c>
       <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F46" s="3">
         <v>6900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8600</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>7000</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,85 +3669,97 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>600</v>
       </c>
       <c r="U48" s="3">
         <v>600</v>
       </c>
       <c r="V48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
+      <c r="X48" s="3">
+        <v>700</v>
       </c>
       <c r="Y48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>700</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3563,20 +3784,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -3597,13 +3818,13 @@
         <v>500</v>
       </c>
       <c r="V49" s="3">
+        <v>500</v>
+      </c>
+      <c r="W49" s="3">
+        <v>500</v>
+      </c>
+      <c r="X49" s="3">
         <v>900</v>
-      </c>
-      <c r="W49" s="3">
-        <v>900</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y49" s="3">
         <v>900</v>
@@ -3612,10 +3833,16 @@
         <v>8</v>
       </c>
       <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,16 +4001,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3785,20 +4024,20 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13000</v>
+        <v>31600</v>
       </c>
       <c r="E54" s="3">
-        <v>13100</v>
+        <v>32500</v>
       </c>
       <c r="F54" s="3">
         <v>13000</v>
       </c>
       <c r="G54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I54" s="3">
         <v>14400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>20000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10200</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>8500</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4316,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>6600</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,10 +4410,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -4164,22 +4431,22 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -4187,11 +4454,11 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>200</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4202,171 +4469,189 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1600</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>10300</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9600</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <v>8800</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,56 +4727,62 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4510,17 +4801,23 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9600</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
         <v>8800</v>
       </c>
-      <c r="Z66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5505,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,10 +5520,10 @@
         <v>-6600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="F72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G72" s="3">
         <v>-6700</v>
@@ -5185,64 +5532,70 @@
         <v>-6700</v>
       </c>
       <c r="I72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-1200</v>
       </c>
       <c r="U72" s="3">
         <v>-1100</v>
       </c>
       <c r="V72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X72" s="3">
         <v>400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-400</v>
       </c>
-      <c r="Z72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>600</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,16 +6209,18 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5877,22 +6274,28 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,59 +6821,61 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -6442,25 +6883,31 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-17500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6631,41 +7090,41 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6673,25 +7132,31 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,97 +7512,109 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7181,58 +7678,64 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7241,21 +7744,27 @@
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -6828,14 +6828,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATXG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>ATXG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2200</v>
       </c>
       <c r="S8" s="3">
         <v>1900</v>
       </c>
       <c r="T8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>8300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2400</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2300</v>
       </c>
       <c r="I9" s="3">
         <v>2300</v>
       </c>
       <c r="J9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3700</v>
       </c>
       <c r="Q9" s="3">
         <v>1600</v>
       </c>
       <c r="R9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T9" s="3">
         <v>1900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>7500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>2100</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
       </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>500</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-3000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>300</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,31 +1259,37 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1263,53 +1303,59 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2900</v>
       </c>
       <c r="W17" s="3">
         <v>2700</v>
       </c>
       <c r="X17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>3100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,23 +1682,25 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1655,14 +1723,14 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1699,99 +1767,111 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1817,11 +1897,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1832,11 +1912,11 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>100</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2419,11 +2541,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2434,11 +2556,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,23 +2746,29 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2651,14 +2791,14 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2695,91 +2835,103 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,106 +3266,114 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
-      </c>
-      <c r="W41" s="3">
-        <v>300</v>
-      </c>
-      <c r="X41" s="3">
-        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
+      <c r="Z41" s="3">
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F42" s="3">
         <v>17500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>17500</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3203,11 +3383,11 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3260,91 +3440,103 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>5700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>5600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>6800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>7000</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3">
         <v>7100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3352,13 +3544,13 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -3367,31 +3559,31 @@
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
@@ -3400,22 +3592,22 @@
         <v>400</v>
       </c>
       <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
+        <v>400</v>
+      </c>
+      <c r="W44" s="3">
         <v>100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA44" s="3">
         <v>400</v>
@@ -3424,199 +3616,217 @@
         <v>8</v>
       </c>
       <c r="AC44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1000</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F46" s="3">
         <v>27300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8600</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>7000</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3675,91 +3885,103 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>600</v>
-      </c>
-      <c r="V48" s="3">
-        <v>600</v>
       </c>
       <c r="W48" s="3">
         <v>600</v>
       </c>
       <c r="X48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y48" s="3">
         <v>600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
+      <c r="Z48" s="3">
+        <v>700</v>
       </c>
       <c r="AA48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
         <v>700</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3790,20 +4012,20 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>500</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
@@ -3824,13 +4046,13 @@
         <v>500</v>
       </c>
       <c r="X49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z49" s="3">
         <v>900</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>900</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA49" s="3">
         <v>900</v>
@@ -3839,10 +4061,16 @@
         <v>8</v>
       </c>
       <c r="AC49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,13 +4256,13 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -4030,20 +4270,20 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F54" s="3">
         <v>31600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>32500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13100</v>
       </c>
       <c r="H54" s="3">
         <v>13000</v>
       </c>
       <c r="I54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K54" s="3">
         <v>14400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>20000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
         <v>8500</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>7300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>6600</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>1800</v>
       </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,10 +4684,10 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -4437,22 +4705,22 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -4460,11 +4728,11 @@
       <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
+        <v>200</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4475,191 +4743,209 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1600</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3100</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>10300</v>
       </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>9500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9600</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
         <v>8800</v>
       </c>
-      <c r="AB60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4733,62 +5019,68 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4807,17 +5099,23 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F66" s="3">
         <v>8700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>9500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9600</v>
       </c>
-      <c r="Z66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
         <v>8800</v>
       </c>
-      <c r="AB66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,25 +5853,31 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6600</v>
+        <v>-8200</v>
       </c>
       <c r="E72" s="3">
-        <v>-6600</v>
+        <v>-5400</v>
       </c>
       <c r="F72" s="3">
         <v>-6600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="I72" s="3">
         <v>-6700</v>
@@ -5538,64 +5886,70 @@
         <v>-6700</v>
       </c>
       <c r="K72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-1200</v>
       </c>
       <c r="W72" s="3">
         <v>-1100</v>
       </c>
       <c r="X72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z72" s="3">
         <v>400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-400</v>
       </c>
-      <c r="AB72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F76" s="3">
         <v>22900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>23000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>600</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
-      <c r="AB76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6223,10 +6621,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -6280,22 +6678,28 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6847,41 +7289,41 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6889,25 +7331,31 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,23 +7526,29 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-17500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -7096,41 +7556,41 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -7138,25 +7598,31 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,109 +8004,121 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>4000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7684,64 +8182,70 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7750,21 +8254,27 @@
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>300</v>
       </c>
     </row>
